--- a/置管电子件清单.xlsx
+++ b/置管电子件清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>图片</t>
   </si>
@@ -31,9 +31,6 @@
     <t>说明</t>
   </si>
   <si>
-    <t>提供</t>
-  </si>
-  <si>
     <t>控制板USB线（方对母带耳朵）</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>https://item.jd.com/10605720592.html</t>
   </si>
   <si>
-    <t>苏州</t>
-  </si>
-  <si>
     <t>USB线（公对公）</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
     <t>电源滤波器</t>
   </si>
   <si>
-    <t>9针的航空插头（公母，铁质）</t>
-  </si>
-  <si>
     <t>加密狗</t>
   </si>
   <si>
@@ -70,9 +61,6 @@
     <t>Ins5475-1948TW</t>
   </si>
   <si>
-    <t>深圳</t>
-  </si>
-  <si>
     <t>一拖二电源线</t>
   </si>
   <si>
@@ -85,22 +73,7 @@
     <t>https://item.jd.com/10011431701.html</t>
   </si>
   <si>
-    <t>控制板</t>
-  </si>
-  <si>
-    <t>直流电源</t>
-  </si>
-  <si>
-    <t>编码器</t>
-  </si>
-  <si>
-    <t>微动开关</t>
-  </si>
-  <si>
-    <t>舵机</t>
-  </si>
-  <si>
-    <t>红色部分待补充和确定</t>
+    <t>束线管</t>
   </si>
 </sst>
 </file>
@@ -108,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -154,19 +127,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -175,33 +149,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,9 +179,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,14 +218,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -254,7 +226,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,15 +246,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,7 +262,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,19 +298,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,43 +382,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,109 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +466,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -519,17 +504,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,15 +543,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -592,15 +562,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,7 +582,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,7 +591,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,120 +600,123 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,16 +725,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -839,44 +803,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>172085</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1317625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>608965</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23" descr="7芯航空插头公头.PNG"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="172085" y="2311400"/>
-          <a:ext cx="1145540" cy="456565"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -895,7 +821,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -937,7 +863,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -962,13 +888,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>876935</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>615950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -979,14 +905,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="2987675"/>
+          <a:off x="371475" y="2225675"/>
           <a:ext cx="505460" cy="549275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1000,13 +926,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>843280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1017,14 +943,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114300" y="3556000"/>
+          <a:off x="114300" y="2794000"/>
           <a:ext cx="1085850" cy="843280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1299,226 +1225,145 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="40.375" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="74" customHeight="1" spans="1:5">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="74" customHeight="1" spans="1:6">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3">
+    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="69" customHeight="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="50" customHeight="1" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+    <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E6" s="4"/>
     </row>
-    <row r="5" ht="60" customHeight="1" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5">
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" ht="50" customHeight="1" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" ht="69" customHeight="1" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3">
+    <row r="9" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="E9" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId2" display="https://item.jd.com/10605720592.html"/>
+    <hyperlink ref="E8" r:id="rId3" display="https://item.jd.com/10011431701.html"/>
+    <hyperlink ref="E7" r:id="rId4" display="https://item.jd.com/1817430881.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
